--- a/Jsafety_Sweeps.xlsx
+++ b/Jsafety_Sweeps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyRepos\MATLAB\NHP_Patch_Experiments\+charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B9C85-048A-4CAB-895C-E909A098EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDE42E1-2224-4107-A0FD-CF8A3634032A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="16080" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58275" yWindow="19875" windowWidth="20565" windowHeight="11565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forrest_2022_11_08" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="410">
   <si>
     <t>Sweep</t>
   </si>
@@ -183,6 +183,270 @@
     <t>Jsafety_20_x500um_y-1299um</t>
   </si>
   <si>
+    <t>Jsafety_20_x5500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x5500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x6000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x6000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-1000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-1000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-2000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-2000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-3000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-3000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-4000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-4000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-5000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-5000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-6000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-6000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x0um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x0um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x1000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x1000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x2000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x2000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x3000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x3000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x4000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x4000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x5000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x5000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x6000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x6000um_y1299um</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>amplitude</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Sweep</t>
+  </si>
+  <si>
+    <t>Jsafety_20</t>
+  </si>
+  <si>
+    <t>Jsafety_10</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-1000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-1000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-1500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-1500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-2000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-2000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-2500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-2500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-3000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-3000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-3500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-3500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-4000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-4000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-4500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-4500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-5000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-5000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-5500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-5500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-6000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-6000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-6500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x-6500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x0um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x0um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x1000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x1000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x1500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x1500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x2000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x2000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x2500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x2500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x3000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x3000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x3500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x3500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x4000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x4000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x4500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x4500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x5000um_y-433um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x5000um_y1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_20_x500um_y-1299um</t>
+  </si>
+  <si>
     <t>Jsafety_20_x500um_y433um</t>
   </si>
   <si>
@@ -204,36 +468,78 @@
     <t>Jsafety_10_x-1000um_y1299um</t>
   </si>
   <si>
+    <t>Jsafety_10_x-1500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-1500um_y433um</t>
+  </si>
+  <si>
     <t>Jsafety_10_x-2000um_y-433um</t>
   </si>
   <si>
     <t>Jsafety_10_x-2000um_y1299um</t>
   </si>
   <si>
+    <t>Jsafety_10_x-2500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-2500um_y433um</t>
+  </si>
+  <si>
     <t>Jsafety_10_x-3000um_y-433um</t>
   </si>
   <si>
     <t>Jsafety_10_x-3000um_y1299um</t>
   </si>
   <si>
+    <t>Jsafety_10_x-3500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-3500um_y433um</t>
+  </si>
+  <si>
     <t>Jsafety_10_x-4000um_y-433um</t>
   </si>
   <si>
     <t>Jsafety_10_x-4000um_y1299um</t>
   </si>
   <si>
+    <t>Jsafety_10_x-4500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-4500um_y433um</t>
+  </si>
+  <si>
     <t>Jsafety_10_x-5000um_y-433um</t>
   </si>
   <si>
     <t>Jsafety_10_x-5000um_y1299um</t>
   </si>
   <si>
+    <t>Jsafety_10_x-500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-5500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-5500um_y433um</t>
+  </si>
+  <si>
     <t>Jsafety_10_x-6000um_y-433um</t>
   </si>
   <si>
     <t>Jsafety_10_x-6000um_y1299um</t>
   </si>
   <si>
+    <t>Jsafety_10_x-6500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x-6500um_y433um</t>
+  </si>
+  <si>
     <t>Jsafety_10_x0um_y-433um</t>
   </si>
   <si>
@@ -246,30 +552,66 @@
     <t>Jsafety_10_x1000um_y1299um</t>
   </si>
   <si>
+    <t>Jsafety_10_x1500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x1500um_y433um</t>
+  </si>
+  <si>
     <t>Jsafety_10_x2000um_y-433um</t>
   </si>
   <si>
     <t>Jsafety_10_x2000um_y1299um</t>
   </si>
   <si>
+    <t>Jsafety_10_x2500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x2500um_y433um</t>
+  </si>
+  <si>
     <t>Jsafety_10_x3000um_y-433um</t>
   </si>
   <si>
     <t>Jsafety_10_x3000um_y1299um</t>
   </si>
   <si>
+    <t>Jsafety_10_x3500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x3500um_y433um</t>
+  </si>
+  <si>
     <t>Jsafety_10_x4000um_y-433um</t>
   </si>
   <si>
     <t>Jsafety_10_x4000um_y1299um</t>
   </si>
   <si>
+    <t>Jsafety_10_x4500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x4500um_y433um</t>
+  </si>
+  <si>
     <t>Jsafety_10_x5000um_y-433um</t>
   </si>
   <si>
     <t>Jsafety_10_x5000um_y1299um</t>
   </si>
   <si>
+    <t>Jsafety_10_x500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x500um_y433um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x5500um_y-1299um</t>
+  </si>
+  <si>
+    <t>Jsafety_10_x5500um_y433um</t>
+  </si>
+  <si>
     <t>Jsafety_10_x6000um_y-433um</t>
   </si>
   <si>
@@ -279,6 +621,318 @@
     <t>Tag</t>
   </si>
   <si>
+    <t>Run40_Jsafety_20_x-1000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-1000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-1500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-1500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-2000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-2000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-2500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-2500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-3000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-3000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-3500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-3500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-4000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-4000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-4500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-4500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-5000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-5000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-5500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-5500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-6000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-6000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-6500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x-6500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x0um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x0um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x1000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x1000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x1500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x1500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x2000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x2000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x2500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x2500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x3000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x3000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x3500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x3500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x4000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x4000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x4500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x4500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x5000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x5000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x5500um_y-1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x5500um_y433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x6000um_y-433um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_20_x6000um_y1299um_-50EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-1000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-1000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-1500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-1500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-2000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-2000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-2500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-2500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-3000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-3000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-3500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-3500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-4000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-4000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-4500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-4500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-5000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-5000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-5500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-5500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-6000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-6000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-6500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x-6500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x0um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x0um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x1000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x1000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x1500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x1500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x2000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x2000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x2500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x2500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x3000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x3000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x3500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x3500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x4000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x4000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x4500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x4500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x5000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x5000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x5500um_y-1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x5500um_y433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x6000um_y-433um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
+    <t>Run40_Jsafety_10_x6000um_y1299um_-23EMU_Biphasic-Anodal</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -297,673 +951,7 @@
     <t>index</t>
   </si>
   <si>
-    <t>Sweep</t>
-  </si>
-  <si>
-    <t>Jsafety_20</t>
-  </si>
-  <si>
-    <t>Jsafety_10</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-1000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-1000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-1500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-1500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-2000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-2000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-2500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-2500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-3000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-3000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-3500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-3500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-4000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-4000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-4500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-4500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-5000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-5000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-5500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-5500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-6000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-6000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-6500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x-6500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x0um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x0um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x1000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x1000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x1500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x1500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x2000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x2000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x2500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x2500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x3000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x3000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x3500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x3500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x4000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x4000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x4500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x4500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x5000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x5000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x5500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x5500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x6000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x6000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-1000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-1000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-1500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-1500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-2000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-2000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-2500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-2500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-3000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-3000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-3500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-3500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-4000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-4000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-4500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-4500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-5000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-5000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-5500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-5500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-6000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-6000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-6500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x-6500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x0um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x0um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x1000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x1000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x1500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x1500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x2000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x2000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x2500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x2500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x3000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x3000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x3500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x3500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x4000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x4000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x4500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x4500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x5000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x5000um_y1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x5500um_y-1299um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x5500um_y433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x6000um_y-433um</t>
-  </si>
-  <si>
-    <t>Jsafety_10_x6000um_y1299um</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-1000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-1000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-1500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-1500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-2000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-2000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-2500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-2500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-3000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-3000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-3500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-3500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-4000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-4000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-4500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-4500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-5000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-5000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-5500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-5500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-6000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-6000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-6500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x-6500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x0um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x0um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x1000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x1000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x1500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x1500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x2000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x2000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x2500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x2500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x3000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x3000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x3500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x3500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x4000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x4000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x4500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x4500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x5000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x5000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x5500um_y-1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x5500um_y433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x6000um_y-433um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_20_x6000um_y1299um_-50EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-1000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-1000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-1500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-1500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-2000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-2000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-2500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-2500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-3000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-3000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-3500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-3500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-4000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-4000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-4500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-4500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-5000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-5000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-5500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-5500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-6000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-6000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-6500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x-6500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x0um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x0um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x1000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x1000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x1500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x1500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x2000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x2000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x2500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x2500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x3000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x3000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x3500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x3500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x4000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x4000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x4500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x4500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x5000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x5000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x5500um_y-1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x5500um_y433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x6000um_y-433um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>Run40_Jsafety_10_x6000um_y1299um_-23EMU_Biphasic-Anodal</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>amplitude</t>
-  </si>
-  <si>
-    <t>col</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>HP_20_mod</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x0um_y-433um_15EMU_Biphasic_Cathodal</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x0um_y1299um_15EMU_Biphasic_Cathodal</t>
-  </si>
-  <si>
-    <t>Jsafety_20_x500um_y433um_15EMU_Biphasic_Cathodal</t>
   </si>
   <si>
     <t>Jsafety_20_x-500um_y433um_15EMU_Biphasic_Cathodal</t>
@@ -1641,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561B365E-0E59-460F-BDDC-DD4D3DDB7F7E}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1659,45 +1647,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2">
         <v>-1000</v>
@@ -1723,13 +1711,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3">
         <v>-1000</v>
@@ -1755,13 +1743,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4">
         <v>-1500</v>
@@ -1787,13 +1775,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5">
         <v>-1500</v>
@@ -1819,13 +1807,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6">
         <v>-2000</v>
@@ -1851,13 +1839,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7">
         <v>-2000</v>
@@ -1883,13 +1871,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <v>-2500</v>
@@ -1915,13 +1903,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9">
         <v>-2500</v>
@@ -1947,13 +1935,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10">
         <v>-3000</v>
@@ -1979,13 +1967,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D11">
         <v>-3000</v>
@@ -2011,13 +1999,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12">
         <v>-3500</v>
@@ -2043,13 +2031,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13">
         <v>-3500</v>
@@ -2075,13 +2063,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14">
         <v>-4000</v>
@@ -2107,13 +2095,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15">
         <v>-4000</v>
@@ -2139,13 +2127,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16">
         <v>-4500</v>
@@ -2171,13 +2159,13 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17">
         <v>-4500</v>
@@ -2203,13 +2191,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18">
         <v>-5000</v>
@@ -2235,13 +2223,13 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D19">
         <v>-5000</v>
@@ -2267,13 +2255,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20">
         <v>-500</v>
@@ -2299,13 +2287,13 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21">
         <v>-500</v>
@@ -2331,13 +2319,13 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22">
         <v>-5500</v>
@@ -2363,13 +2351,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23">
         <v>-5500</v>
@@ -2395,13 +2383,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D24">
         <v>-6000</v>
@@ -2427,13 +2415,13 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D25">
         <v>-6000</v>
@@ -2459,13 +2447,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D26">
         <v>-6500</v>
@@ -2491,13 +2479,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D27">
         <v>-6500</v>
@@ -2523,13 +2511,13 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2555,13 +2543,13 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2587,13 +2575,13 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30">
         <v>1000</v>
@@ -2619,13 +2607,13 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D31">
         <v>1000</v>
@@ -2651,13 +2639,13 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D32">
         <v>1500</v>
@@ -2683,13 +2671,13 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D33">
         <v>1500</v>
@@ -2715,13 +2703,13 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D34">
         <v>2000</v>
@@ -2747,13 +2735,13 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D35">
         <v>2000</v>
@@ -2779,13 +2767,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D36">
         <v>2500</v>
@@ -2811,13 +2799,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D37">
         <v>2500</v>
@@ -2843,13 +2831,13 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D38">
         <v>3000</v>
@@ -2875,13 +2863,13 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D39">
         <v>3000</v>
@@ -2907,13 +2895,13 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D40">
         <v>3500</v>
@@ -2939,13 +2927,13 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D41">
         <v>3500</v>
@@ -2971,13 +2959,13 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D42">
         <v>4000</v>
@@ -3003,13 +2991,13 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D43">
         <v>4000</v>
@@ -3035,13 +3023,13 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D44">
         <v>4500</v>
@@ -3067,13 +3055,13 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D45">
         <v>4500</v>
@@ -3099,13 +3087,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D46">
         <v>5000</v>
@@ -3131,13 +3119,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47">
         <v>5000</v>
@@ -3163,13 +3151,13 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D48">
         <v>500</v>
@@ -3195,13 +3183,13 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D49">
         <v>500</v>
@@ -3227,13 +3215,13 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D50">
         <v>5500</v>
@@ -3259,13 +3247,13 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D51">
         <v>5500</v>
@@ -3291,13 +3279,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D52">
         <v>6000</v>
@@ -3323,13 +3311,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D53">
         <v>6000</v>
@@ -3355,13 +3343,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D54">
         <v>-1000</v>
@@ -3387,13 +3375,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D55">
         <v>-1000</v>
@@ -3419,13 +3407,13 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D56">
         <v>-1500</v>
@@ -3451,13 +3439,13 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D57">
         <v>-1500</v>
@@ -3483,13 +3471,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D58">
         <v>-2000</v>
@@ -3515,13 +3503,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D59">
         <v>-2000</v>
@@ -3547,13 +3535,13 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D60">
         <v>-2500</v>
@@ -3579,13 +3567,13 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D61">
         <v>-2500</v>
@@ -3611,13 +3599,13 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D62">
         <v>-3000</v>
@@ -3643,13 +3631,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D63">
         <v>-3000</v>
@@ -3675,13 +3663,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D64">
         <v>-3500</v>
@@ -3707,13 +3695,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D65">
         <v>-3500</v>
@@ -3739,13 +3727,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D66">
         <v>-4000</v>
@@ -3771,13 +3759,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D67">
         <v>-4000</v>
@@ -3803,13 +3791,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D68">
         <v>-4500</v>
@@ -3835,13 +3823,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D69">
         <v>-4500</v>
@@ -3867,13 +3855,13 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D70">
         <v>-5000</v>
@@ -3899,13 +3887,13 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D71">
         <v>-5000</v>
@@ -3931,13 +3919,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D72">
         <v>-500</v>
@@ -3963,13 +3951,13 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D73">
         <v>-500</v>
@@ -3995,13 +3983,13 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D74">
         <v>-5500</v>
@@ -4027,13 +4015,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D75">
         <v>-5500</v>
@@ -4059,13 +4047,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D76">
         <v>-6000</v>
@@ -4091,13 +4079,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D77">
         <v>-6000</v>
@@ -4123,13 +4111,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D78">
         <v>-6500</v>
@@ -4155,13 +4143,13 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D79">
         <v>-6500</v>
@@ -4187,13 +4175,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -4219,13 +4207,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -4251,13 +4239,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D82">
         <v>1000</v>
@@ -4283,13 +4271,13 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D83">
         <v>1000</v>
@@ -4315,13 +4303,13 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D84">
         <v>1500</v>
@@ -4347,13 +4335,13 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D85">
         <v>1500</v>
@@ -4379,13 +4367,13 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D86">
         <v>2000</v>
@@ -4411,13 +4399,13 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D87">
         <v>2000</v>
@@ -4443,13 +4431,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D88">
         <v>2500</v>
@@ -4475,13 +4463,13 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D89">
         <v>2500</v>
@@ -4507,13 +4495,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D90">
         <v>3000</v>
@@ -4539,13 +4527,13 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D91">
         <v>3000</v>
@@ -4571,13 +4559,13 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D92">
         <v>3500</v>
@@ -4603,13 +4591,13 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D93">
         <v>3500</v>
@@ -4635,13 +4623,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D94">
         <v>4000</v>
@@ -4667,13 +4655,13 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D95">
         <v>4000</v>
@@ -4699,13 +4687,13 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D96">
         <v>4500</v>
@@ -4731,13 +4719,13 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B97" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C97" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D97">
         <v>4500</v>
@@ -4763,13 +4751,13 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D98">
         <v>5000</v>
@@ -4795,13 +4783,13 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D99">
         <v>5000</v>
@@ -4827,13 +4815,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D100">
         <v>500</v>
@@ -4859,13 +4847,13 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D101">
         <v>500</v>
@@ -4891,13 +4879,13 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D102">
         <v>5500</v>
@@ -4923,13 +4911,13 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D103">
         <v>5500</v>
@@ -4955,13 +4943,13 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B104" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C104" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D104">
         <v>6000</v>
@@ -4987,13 +4975,13 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C105" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D105">
         <v>6000</v>
@@ -5025,10 +5013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06071E07-0FE2-4EBD-9652-D997CD54C11C}">
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5043,7 +5031,7 @@
     <col min="9" max="9" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5051,71 +5039,77 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>305</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>306</v>
-      </c>
       <c r="D2">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E2">
-        <v>-433</v>
+        <v>433</v>
       </c>
       <c r="F2">
         <v>15</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+      <c r="J2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E3">
-        <v>1299</v>
+        <v>-1299</v>
       </c>
       <c r="F3">
         <v>15</v>
@@ -5124,259 +5118,286 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="E4">
-        <v>433</v>
+        <v>-1299</v>
       </c>
       <c r="F4">
         <v>15</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="J4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5">
-        <v>-500</v>
+        <v>1000</v>
       </c>
       <c r="E5">
-        <v>433</v>
+        <v>-433</v>
       </c>
       <c r="F5">
         <v>15</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D6">
-        <v>500</v>
+        <v>-1000</v>
       </c>
       <c r="E6">
-        <v>-1299</v>
+        <v>-433</v>
       </c>
       <c r="F6">
         <v>15</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="J6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7">
-        <v>-500</v>
+        <v>1000</v>
       </c>
       <c r="E7">
-        <v>-1299</v>
+        <v>1299</v>
       </c>
       <c r="F7">
         <v>15</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+      <c r="J7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
       <c r="E8">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F8">
         <v>15</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="J8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D9">
-        <v>-1000</v>
+        <v>1500</v>
       </c>
       <c r="E9">
-        <v>-433</v>
+        <v>433</v>
       </c>
       <c r="F9">
         <v>15</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+      <c r="J9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>-1500</v>
       </c>
       <c r="E10">
-        <v>1299</v>
+        <v>433</v>
       </c>
       <c r="F10">
         <v>15</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D11">
-        <v>-1000</v>
+        <v>1500</v>
       </c>
       <c r="E11">
-        <v>1299</v>
+        <v>-1299</v>
       </c>
       <c r="F11">
         <v>15</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+      <c r="J11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D12">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E12">
-        <v>433</v>
+        <v>-433</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -5385,56 +5406,62 @@
         <v>17</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="J12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D13">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="E13">
-        <v>433</v>
+        <v>-433</v>
       </c>
       <c r="F13">
         <v>15</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E14">
-        <v>-1299</v>
+        <v>1299</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -5443,1126 +5470,1243 @@
         <v>17</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+      <c r="J14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D15">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
       <c r="E15">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F15">
         <v>15</v>
       </c>
       <c r="G15">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D16">
-        <v>-2000</v>
+        <v>2500</v>
       </c>
       <c r="E16">
-        <v>-433</v>
+        <v>433</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+      <c r="J16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D17">
-        <v>2000</v>
+        <v>-2500</v>
       </c>
       <c r="E17">
-        <v>1299</v>
+        <v>433</v>
       </c>
       <c r="F17">
         <v>15</v>
       </c>
       <c r="G17">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="J17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D18">
-        <v>-2000</v>
+        <v>2500</v>
       </c>
       <c r="E18">
-        <v>1299</v>
+        <v>-1299</v>
       </c>
       <c r="F18">
         <v>15</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+      <c r="J18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D19">
-        <v>2500</v>
+        <v>-2500</v>
       </c>
       <c r="E19">
-        <v>433</v>
+        <v>-1299</v>
       </c>
       <c r="F19">
         <v>15</v>
       </c>
       <c r="G19">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="J19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D20">
-        <v>-2500</v>
+        <v>3000</v>
       </c>
       <c r="E20">
-        <v>433</v>
+        <v>-433</v>
       </c>
       <c r="F20">
         <v>15</v>
       </c>
       <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>74</v>
+      </c>
+      <c r="J20">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>305</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
       <c r="C21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D21">
-        <v>2500</v>
+        <v>-3000</v>
       </c>
       <c r="E21">
-        <v>-1299</v>
+        <v>-433</v>
       </c>
       <c r="F21">
         <v>15</v>
       </c>
       <c r="G21">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="J21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D22">
-        <v>-2500</v>
+        <v>3000</v>
       </c>
       <c r="E22">
-        <v>-1299</v>
+        <v>1299</v>
       </c>
       <c r="F22">
         <v>15</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="J22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D23">
-        <v>3000</v>
+        <v>-3000</v>
       </c>
       <c r="E23">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F23">
         <v>15</v>
       </c>
       <c r="G23">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="J23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D24">
-        <v>-3000</v>
+        <v>3500</v>
       </c>
       <c r="E24">
-        <v>-433</v>
+        <v>433</v>
       </c>
       <c r="F24">
         <v>15</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="J24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D25">
-        <v>3000</v>
+        <v>-3500</v>
       </c>
       <c r="E25">
-        <v>1299</v>
+        <v>433</v>
       </c>
       <c r="F25">
         <v>15</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="J25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D26">
-        <v>-3000</v>
+        <v>3500</v>
       </c>
       <c r="E26">
-        <v>1299</v>
+        <v>-1299</v>
       </c>
       <c r="F26">
         <v>15</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+      <c r="J26">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D27">
-        <v>3500</v>
+        <v>-3500</v>
       </c>
       <c r="E27">
-        <v>433</v>
+        <v>-1299</v>
       </c>
       <c r="F27">
         <v>15</v>
       </c>
       <c r="G27">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D28">
-        <v>-3500</v>
+        <v>4000</v>
       </c>
       <c r="E28">
-        <v>433</v>
+        <v>-433</v>
       </c>
       <c r="F28">
         <v>15</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="J28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D29">
-        <v>3500</v>
+        <v>-4000</v>
       </c>
       <c r="E29">
-        <v>-1299</v>
+        <v>-433</v>
       </c>
       <c r="F29">
         <v>15</v>
       </c>
       <c r="G29">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="J29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D30">
-        <v>-3500</v>
+        <v>4000</v>
       </c>
       <c r="E30">
-        <v>-1299</v>
+        <v>1299</v>
       </c>
       <c r="F30">
         <v>15</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+      <c r="J30">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D31">
-        <v>4000</v>
+        <v>-4000</v>
       </c>
       <c r="E31">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F31">
         <v>15</v>
       </c>
       <c r="G31">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D32">
-        <v>-4000</v>
+        <v>4500</v>
       </c>
       <c r="E32">
-        <v>-433</v>
+        <v>433</v>
       </c>
       <c r="F32">
         <v>15</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+      <c r="J32">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33">
-        <v>4000</v>
+        <v>-4500</v>
       </c>
       <c r="E33">
-        <v>1299</v>
+        <v>433</v>
       </c>
       <c r="F33">
         <v>15</v>
       </c>
       <c r="G33">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D34">
-        <v>-4000</v>
+        <v>4500</v>
       </c>
       <c r="E34">
-        <v>1299</v>
+        <v>-1299</v>
       </c>
       <c r="F34">
         <v>15</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+      <c r="J34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D35">
-        <v>4500</v>
+        <v>-4500</v>
       </c>
       <c r="E35">
-        <v>433</v>
+        <v>-1299</v>
       </c>
       <c r="F35">
         <v>15</v>
       </c>
       <c r="G35">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D36">
-        <v>-4500</v>
+        <v>5000</v>
       </c>
       <c r="E36">
-        <v>433</v>
+        <v>-433</v>
       </c>
       <c r="F36">
         <v>15</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="J36">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D37">
-        <v>4500</v>
+        <v>-5000</v>
       </c>
       <c r="E37">
-        <v>-1299</v>
+        <v>-433</v>
       </c>
       <c r="F37">
         <v>15</v>
       </c>
       <c r="G37">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D38">
-        <v>-4500</v>
+        <v>5000</v>
       </c>
       <c r="E38">
-        <v>-1299</v>
+        <v>1299</v>
       </c>
       <c r="F38">
         <v>15</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+      <c r="J38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D39">
-        <v>5000</v>
+        <v>-5000</v>
       </c>
       <c r="E39">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F39">
         <v>15</v>
       </c>
       <c r="G39">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="J39">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D40">
-        <v>-5000</v>
+        <v>5500</v>
       </c>
       <c r="E40">
-        <v>-433</v>
+        <v>433</v>
       </c>
       <c r="F40">
         <v>15</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+      <c r="J40">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D41">
-        <v>5000</v>
+        <v>-5500</v>
       </c>
       <c r="E41">
-        <v>1299</v>
+        <v>433</v>
       </c>
       <c r="F41">
         <v>15</v>
       </c>
       <c r="G41">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="J41">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D42">
-        <v>-5000</v>
+        <v>5500</v>
       </c>
       <c r="E42">
-        <v>1299</v>
+        <v>-1299</v>
       </c>
       <c r="F42">
         <v>15</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="J42">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D43">
-        <v>5500</v>
+        <v>-5500</v>
       </c>
       <c r="E43">
-        <v>433</v>
+        <v>-1299</v>
       </c>
       <c r="F43">
         <v>15</v>
       </c>
       <c r="G43">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="J43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D44">
-        <v>-5500</v>
+        <v>6000</v>
       </c>
       <c r="E44">
-        <v>433</v>
+        <v>-433</v>
       </c>
       <c r="F44">
         <v>15</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+      <c r="J44">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D45">
-        <v>5500</v>
+        <v>-6000</v>
       </c>
       <c r="E45">
-        <v>-1299</v>
+        <v>-433</v>
       </c>
       <c r="F45">
         <v>15</v>
       </c>
       <c r="G45">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D46">
-        <v>-5500</v>
+        <v>6000</v>
       </c>
       <c r="E46">
-        <v>-1299</v>
+        <v>1299</v>
       </c>
       <c r="F46">
         <v>15</v>
       </c>
       <c r="G46">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="J46">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D47">
-        <v>6000</v>
+        <v>-6000</v>
       </c>
       <c r="E47">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F47">
         <v>15</v>
       </c>
       <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" t="s">
         <v>26</v>
       </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>305</v>
-      </c>
-      <c r="B48" t="s">
-        <v>23</v>
-      </c>
       <c r="C48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D48">
-        <v>-6000</v>
+        <v>-6500</v>
       </c>
       <c r="E48">
-        <v>-433</v>
+        <v>433</v>
       </c>
       <c r="F48">
         <v>15</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D49">
-        <v>6000</v>
+        <v>-6500</v>
       </c>
       <c r="E49">
-        <v>1299</v>
+        <v>-1299</v>
       </c>
       <c r="F49">
         <v>15</v>
       </c>
       <c r="G49">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
         <v>354</v>
       </c>
       <c r="D50">
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F50">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="J50">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
         <v>355</v>
       </c>
       <c r="D51">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>433</v>
+        <v>1299</v>
       </c>
       <c r="F51">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
         <v>356</v>
       </c>
       <c r="D52">
-        <v>-6500</v>
+        <v>1000</v>
       </c>
       <c r="E52">
-        <v>-1299</v>
+        <v>-433</v>
       </c>
       <c r="F52">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="J52">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
         <v>357</v>
       </c>
-      <c r="B53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" t="s">
-        <v>358</v>
-      </c>
       <c r="D53">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E53">
         <v>-433</v>
@@ -6571,27 +6715,30 @@
         <v>25</v>
       </c>
       <c r="G53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="J53">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E54">
         <v>1299</v>
@@ -6600,56 +6747,62 @@
         <v>25</v>
       </c>
       <c r="G54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H54">
         <v>2</v>
       </c>
       <c r="I54">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="J54">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D55">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
       <c r="E55">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F55">
         <v>25</v>
       </c>
       <c r="G55">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D56">
-        <v>-1000</v>
+        <v>2000</v>
       </c>
       <c r="E56">
         <v>-433</v>
@@ -6658,56 +6811,62 @@
         <v>25</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D57">
-        <v>1000</v>
+        <v>-2000</v>
       </c>
       <c r="E57">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F57">
         <v>25</v>
       </c>
       <c r="G57">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="J57">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D58">
-        <v>-1000</v>
+        <v>2000</v>
       </c>
       <c r="E58">
         <v>1299</v>
@@ -6716,56 +6875,62 @@
         <v>25</v>
       </c>
       <c r="G58">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="J58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D59">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
       <c r="E59">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F59">
         <v>25</v>
       </c>
       <c r="G59">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="J59">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D60">
-        <v>-2000</v>
+        <v>3000</v>
       </c>
       <c r="E60">
         <v>-433</v>
@@ -6774,56 +6939,62 @@
         <v>25</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
+        <v>19</v>
+      </c>
+      <c r="J60">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>357</v>
-      </c>
-      <c r="B61" t="s">
-        <v>34</v>
-      </c>
       <c r="C61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D61">
-        <v>2000</v>
+        <v>-3000</v>
       </c>
       <c r="E61">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F61">
         <v>25</v>
       </c>
       <c r="G61">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="J61">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D62">
-        <v>-2000</v>
+        <v>3000</v>
       </c>
       <c r="E62">
         <v>1299</v>
@@ -6832,56 +7003,62 @@
         <v>25</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
       <c r="I62">
+        <v>20</v>
+      </c>
+      <c r="J62">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>353</v>
+      </c>
+      <c r="B63" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>357</v>
-      </c>
-      <c r="B63" t="s">
-        <v>37</v>
-      </c>
       <c r="C63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D63">
-        <v>3000</v>
+        <v>-3000</v>
       </c>
       <c r="E63">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F63">
         <v>25</v>
       </c>
       <c r="G63">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D64">
-        <v>-3000</v>
+        <v>4000</v>
       </c>
       <c r="E64">
         <v>-433</v>
@@ -6890,56 +7067,62 @@
         <v>25</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="J64">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D65">
-        <v>3000</v>
+        <v>-4000</v>
       </c>
       <c r="E65">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F65">
         <v>25</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D66">
-        <v>-3000</v>
+        <v>4000</v>
       </c>
       <c r="E66">
         <v>1299</v>
@@ -6948,56 +7131,62 @@
         <v>25</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="J66">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D67">
-        <v>4000</v>
+        <v>-4000</v>
       </c>
       <c r="E67">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F67">
         <v>25</v>
       </c>
       <c r="G67">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="J67">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D68">
-        <v>-4000</v>
+        <v>5000</v>
       </c>
       <c r="E68">
         <v>-433</v>
@@ -7006,56 +7195,62 @@
         <v>25</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="J68">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D69">
-        <v>4000</v>
+        <v>-5000</v>
       </c>
       <c r="E69">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F69">
         <v>25</v>
       </c>
       <c r="G69">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D70">
-        <v>-4000</v>
+        <v>5000</v>
       </c>
       <c r="E70">
         <v>1299</v>
@@ -7064,56 +7259,62 @@
         <v>25</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H70">
         <v>2</v>
       </c>
       <c r="I70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="J70">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D71">
-        <v>5000</v>
+        <v>-5000</v>
       </c>
       <c r="E71">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F71">
         <v>25</v>
       </c>
       <c r="G71">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D72">
-        <v>-5000</v>
+        <v>6000</v>
       </c>
       <c r="E72">
         <v>-433</v>
@@ -7122,56 +7323,62 @@
         <v>25</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J72">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D73">
-        <v>5000</v>
+        <v>-6000</v>
       </c>
       <c r="E73">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F73">
         <v>25</v>
       </c>
       <c r="G73">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D74">
-        <v>-5000</v>
+        <v>6000</v>
       </c>
       <c r="E74">
         <v>1299</v>
@@ -7180,56 +7387,62 @@
         <v>25</v>
       </c>
       <c r="G74">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J74">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D75">
-        <v>6000</v>
+        <v>-6000</v>
       </c>
       <c r="E75">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F75">
         <v>25</v>
       </c>
       <c r="G75">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C76" t="s">
         <v>381</v>
       </c>
       <c r="D76">
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>-433</v>
@@ -7238,143 +7451,158 @@
         <v>25</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="J76">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
         <v>382</v>
       </c>
       <c r="D77">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F77">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G77">
+        <v>7</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
         <v>13</v>
       </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-      <c r="I77">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J77">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C78" t="s">
         <v>383</v>
       </c>
       <c r="D78">
-        <v>-6000</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F78">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G78">
+        <v>7</v>
+      </c>
+      <c r="H78">
         <v>1</v>
       </c>
-      <c r="H78">
-        <v>2</v>
-      </c>
       <c r="I78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="J78">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B79" t="s">
         <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F79">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>7</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="J79">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E80">
         <v>-433</v>
       </c>
       <c r="F80">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="J80">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E81">
         <v>-433</v>
@@ -7383,27 +7611,30 @@
         <v>30</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="J81">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B82" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C82" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E82">
         <v>1299</v>
@@ -7412,56 +7643,62 @@
         <v>30</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="J82">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C83" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D83">
-        <v>1000</v>
+        <v>-1000</v>
       </c>
       <c r="E83">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F83">
         <v>30</v>
       </c>
       <c r="G83">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="J83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D84">
-        <v>-1000</v>
+        <v>2000</v>
       </c>
       <c r="E84">
         <v>-433</v>
@@ -7470,56 +7707,62 @@
         <v>30</v>
       </c>
       <c r="G84">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="J84">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D85">
-        <v>1000</v>
+        <v>-2000</v>
       </c>
       <c r="E85">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F85">
         <v>30</v>
       </c>
       <c r="G85">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="J85">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D86">
-        <v>-1000</v>
+        <v>2000</v>
       </c>
       <c r="E86">
         <v>1299</v>
@@ -7528,56 +7771,62 @@
         <v>30</v>
       </c>
       <c r="G86">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H86">
         <v>2</v>
       </c>
       <c r="I86">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="J86">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D87">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
       <c r="E87">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F87">
         <v>30</v>
       </c>
       <c r="G87">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B88" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D88">
-        <v>-2000</v>
+        <v>3000</v>
       </c>
       <c r="E88">
         <v>-433</v>
@@ -7586,56 +7835,62 @@
         <v>30</v>
       </c>
       <c r="G88">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="J88">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D89">
-        <v>2000</v>
+        <v>-3000</v>
       </c>
       <c r="E89">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F89">
         <v>30</v>
       </c>
       <c r="G89">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="J89">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D90">
-        <v>-2000</v>
+        <v>3000</v>
       </c>
       <c r="E90">
         <v>1299</v>
@@ -7644,56 +7899,62 @@
         <v>30</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
       <c r="I90">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="J90">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C91" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D91">
-        <v>3000</v>
+        <v>-3000</v>
       </c>
       <c r="E91">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F91">
         <v>30</v>
       </c>
       <c r="G91">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="J91">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D92">
-        <v>-3000</v>
+        <v>4000</v>
       </c>
       <c r="E92">
         <v>-433</v>
@@ -7702,56 +7963,62 @@
         <v>30</v>
       </c>
       <c r="G92">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="J92">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C93" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D93">
-        <v>3000</v>
+        <v>-4000</v>
       </c>
       <c r="E93">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F93">
         <v>30</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D94">
-        <v>-3000</v>
+        <v>4000</v>
       </c>
       <c r="E94">
         <v>1299</v>
@@ -7760,56 +8027,62 @@
         <v>30</v>
       </c>
       <c r="G94">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="J94">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D95">
-        <v>4000</v>
+        <v>-4000</v>
       </c>
       <c r="E95">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F95">
         <v>30</v>
       </c>
       <c r="G95">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="J95">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C96" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D96">
-        <v>-4000</v>
+        <v>5000</v>
       </c>
       <c r="E96">
         <v>-433</v>
@@ -7818,56 +8091,62 @@
         <v>30</v>
       </c>
       <c r="G96">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="J96">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B97" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D97">
-        <v>4000</v>
+        <v>-5000</v>
       </c>
       <c r="E97">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F97">
         <v>30</v>
       </c>
       <c r="G97">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C98" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D98">
-        <v>-4000</v>
+        <v>5000</v>
       </c>
       <c r="E98">
         <v>1299</v>
@@ -7876,56 +8155,62 @@
         <v>30</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
       <c r="I98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="J98">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B99" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D99">
-        <v>5000</v>
+        <v>-5000</v>
       </c>
       <c r="E99">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F99">
         <v>30</v>
       </c>
       <c r="G99">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B100" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D100">
-        <v>-5000</v>
+        <v>6000</v>
       </c>
       <c r="E100">
         <v>-433</v>
@@ -7934,56 +8219,62 @@
         <v>30</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J100">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B101" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D101">
-        <v>5000</v>
+        <v>-6000</v>
       </c>
       <c r="E101">
-        <v>1299</v>
+        <v>-433</v>
       </c>
       <c r="F101">
         <v>30</v>
       </c>
       <c r="G101">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C102" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D102">
-        <v>-5000</v>
+        <v>6000</v>
       </c>
       <c r="E102">
         <v>1299</v>
@@ -7992,132 +8283,52 @@
         <v>30</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H102">
         <v>2</v>
       </c>
       <c r="I102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J102">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D103">
-        <v>6000</v>
+        <v>-6000</v>
       </c>
       <c r="E103">
-        <v>-433</v>
+        <v>1299</v>
       </c>
       <c r="F103">
         <v>30</v>
       </c>
       <c r="G103">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>384</v>
-      </c>
-      <c r="B104" t="s">
-        <v>63</v>
-      </c>
-      <c r="C104" t="s">
-        <v>410</v>
-      </c>
-      <c r="D104">
-        <v>-6000</v>
-      </c>
-      <c r="E104">
-        <v>-433</v>
-      </c>
-      <c r="F104">
-        <v>30</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>384</v>
-      </c>
-      <c r="B105" t="s">
-        <v>78</v>
-      </c>
-      <c r="C105" t="s">
-        <v>411</v>
-      </c>
-      <c r="D105">
-        <v>6000</v>
-      </c>
-      <c r="E105">
-        <v>1299</v>
-      </c>
-      <c r="F105">
-        <v>30</v>
-      </c>
-      <c r="G105">
-        <v>13</v>
-      </c>
-      <c r="H105">
         <v>2</v>
       </c>
-      <c r="I105">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>384</v>
-      </c>
-      <c r="B106" t="s">
-        <v>64</v>
-      </c>
-      <c r="C106" t="s">
-        <v>412</v>
-      </c>
-      <c r="D106">
-        <v>-6000</v>
-      </c>
-      <c r="E106">
-        <v>1299</v>
-      </c>
-      <c r="F106">
-        <v>30</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>2</v>
-      </c>
-      <c r="I106">
-        <v>2</v>
+      <c r="J103">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Jsafety_Sweeps.xlsx
+++ b/Jsafety_Sweeps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyRepos\MATLAB\NHP_Patch_Experiments\+charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDE42E1-2224-4107-A0FD-CF8A3634032A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F2A24D-DA62-4E09-B291-862155823EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58275" yWindow="19875" windowWidth="20565" windowHeight="11565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5015,8 +5015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06071E07-0FE2-4EBD-9652-D997CD54C11C}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
